--- a/bin/excel/SpanishEnglish-VERBS8.xlsx
+++ b/bin/excel/SpanishEnglish-VERBS8.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\NetBeansProjects\Produccion1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B60C34-8F75-4F0A-A83F-4E16F461DC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA8BD12-41F9-4B14-A0C0-276FA2DEEA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{48FDB698-C550-483D-A239-C921E9EAE320}"/>
   </bookViews>
@@ -318,9 +318,6 @@
     <t>promt</t>
   </si>
   <si>
-    <t>rievers</t>
-  </si>
-  <si>
     <t>rob</t>
   </si>
   <si>
@@ -343,6 +340,9 @@
   </si>
   <si>
     <t>condenar(acusar)</t>
+  </si>
+  <si>
+    <t>riev'ers</t>
   </si>
 </sst>
 </file>
@@ -702,7 +702,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,7 +970,7 @@
         <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
         <v>62</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
         <v>63</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
         <v>64</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
         <v>65</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
         <v>66</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
         <v>67</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
         <v>69</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
         <v>70</v>
